--- a/Risultati_VQC.xlsx
+++ b/Risultati_VQC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\Quantum Computing\Progetto_Quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188F7C11-371C-4FEF-B9E1-B33ED2E5481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E81A2-BD2F-40E1-AF39-45083ACFA4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DB13CE7-46A4-45BA-99F6-EEADDB5FEF6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>Feature</t>
   </si>
@@ -68,9 +68,6 @@
     <t>EfficentSU2</t>
   </si>
   <si>
-    <t>linear</t>
-  </si>
-  <si>
     <t>cobyla</t>
   </si>
   <si>
@@ -110,46 +107,31 @@
     <t>Accuracy_1</t>
   </si>
   <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
     <t>Best_loss_value</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
     <t>reverse_linear</t>
   </si>
   <si>
     <t>Circular</t>
   </si>
   <si>
-    <t>TwoLocal</t>
-  </si>
-  <si>
     <t>ZfeatureMap</t>
   </si>
   <si>
     <t>PauliFeatureMap</t>
+  </si>
+  <si>
+    <t>RealAmplitude</t>
+  </si>
+  <si>
+    <t>Ripetizioni</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>ZZFeatureMap</t>
   </si>
 </sst>
 </file>
@@ -165,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,17 +227,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -584,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA8DD4F-6A97-4C60-92BA-950D3C8AFF47}">
-  <dimension ref="D2:AI40"/>
+  <dimension ref="D2:AK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,24 +593,24 @@
     <col min="33" max="33" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="K2" s="2" t="s">
+    <row r="2" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="R3" s="3" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="5" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="5" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,456 +625,694 @@
         <v>3</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="2"/>
       <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="D6">
+      <c r="AK5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="N7" t="s">
         <v>10</v>
       </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="Q7">
+        <v>0.77</v>
+      </c>
+      <c r="R7">
+        <v>0.77</v>
+      </c>
+      <c r="S7">
+        <v>0.75</v>
+      </c>
+      <c r="U7">
+        <v>0.76</v>
+      </c>
+      <c r="V7">
+        <v>0.76</v>
+      </c>
+      <c r="W7">
+        <v>0.79</v>
+      </c>
+      <c r="Y7">
+        <v>0.76</v>
+      </c>
+      <c r="Z7">
+        <v>0.76</v>
+      </c>
+      <c r="AA7">
+        <v>0.66</v>
+      </c>
+      <c r="AC7">
+        <v>0.76</v>
+      </c>
+      <c r="AD7">
+        <v>0.76</v>
+      </c>
+      <c r="AE7">
+        <v>0.72</v>
+      </c>
+      <c r="AG7">
+        <v>0.505</v>
+      </c>
+      <c r="AI7">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="9" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>0.77</v>
+      </c>
+      <c r="R9">
+        <v>0.6</v>
+      </c>
+      <c r="S9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U9">
+        <v>0.8</v>
+      </c>
+      <c r="V9">
+        <v>0.62</v>
+      </c>
+      <c r="W9">
+        <v>0.54</v>
+      </c>
+      <c r="Y9">
+        <v>0.69</v>
+      </c>
+      <c r="Z9">
+        <v>0.45</v>
+      </c>
+      <c r="AA9">
+        <v>0.48</v>
+      </c>
+      <c r="AC9">
+        <v>0.74</v>
+      </c>
+      <c r="AD9">
+        <v>0.52</v>
+      </c>
+      <c r="AE9">
+        <v>0.51</v>
+      </c>
+      <c r="AG9">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="AI9">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6">
+      <c r="K11" s="3"/>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>0.73</v>
+      </c>
+      <c r="R11">
+        <v>0.66</v>
+      </c>
+      <c r="S11">
+        <v>0.74</v>
+      </c>
+      <c r="U11">
+        <v>0.81</v>
+      </c>
+      <c r="V11">
+        <v>0.75</v>
+      </c>
+      <c r="W11">
+        <v>0.82</v>
+      </c>
+      <c r="Y11">
+        <v>0.59</v>
+      </c>
+      <c r="Z11">
+        <v>0.41</v>
+      </c>
+      <c r="AA11">
+        <v>0.62</v>
+      </c>
+      <c r="AC11">
         <v>0.68</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AD11">
+        <v>0.53</v>
+      </c>
+      <c r="AE11">
+        <v>0.71</v>
+      </c>
+      <c r="AG11">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="AI11">
+        <v>1.41</v>
+      </c>
+      <c r="AK11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V6" t="s">
+      <c r="K13" s="3"/>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R13">
+        <v>0.63</v>
+      </c>
+      <c r="S13">
+        <v>0.6</v>
+      </c>
+      <c r="U13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V13">
+        <v>0.63</v>
+      </c>
+      <c r="W13">
+        <v>0.59</v>
+      </c>
+      <c r="Y13">
+        <v>0.52</v>
+      </c>
+      <c r="Z13">
+        <v>0.59</v>
+      </c>
+      <c r="AA13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD13">
+        <v>0.61</v>
+      </c>
+      <c r="AE13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG13">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AI13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AK13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>0.6</v>
+      </c>
+      <c r="R15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S15">
+        <v>0.48</v>
+      </c>
+      <c r="U15">
+        <v>0.61</v>
+      </c>
+      <c r="V15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W15">
+        <v>0.46</v>
+      </c>
+      <c r="Y15">
+        <v>0.48</v>
+      </c>
+      <c r="Z15">
+        <v>0.59</v>
+      </c>
+      <c r="AA15">
+        <v>0.38</v>
+      </c>
+      <c r="AC15">
+        <v>0.54</v>
+      </c>
+      <c r="AD15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AE15">
+        <v>0.42</v>
+      </c>
+      <c r="AG15">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AI15">
+        <v>3.3</v>
+      </c>
+      <c r="AK15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>0.42</v>
+      </c>
+      <c r="R17">
+        <v>0.65</v>
+      </c>
+      <c r="S17">
+        <v>0.63</v>
+      </c>
+      <c r="U17">
+        <v>0.39</v>
+      </c>
+      <c r="V17">
+        <v>0.67</v>
+      </c>
+      <c r="W17">
+        <v>0.63</v>
+      </c>
+      <c r="Y17">
+        <v>0.38</v>
+      </c>
+      <c r="Z17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA17">
+        <v>0.59</v>
+      </c>
+      <c r="AC17">
+        <v>0.39</v>
+      </c>
+      <c r="AD17">
+        <v>0.6</v>
+      </c>
+      <c r="AE17">
+        <v>0.61</v>
+      </c>
+      <c r="AG17">
+        <v>0.625</v>
+      </c>
+      <c r="AI17">
+        <v>3.15</v>
+      </c>
+      <c r="AK17">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="N19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>0.53</v>
+      </c>
+      <c r="R19">
+        <v>0.53</v>
+      </c>
+      <c r="S19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U19">
+        <v>0.53</v>
+      </c>
+      <c r="V19">
+        <v>0.52</v>
+      </c>
+      <c r="W19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y19">
+        <v>0.31</v>
+      </c>
+      <c r="Z19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA19">
+        <v>0.38</v>
+      </c>
+      <c r="AC19">
+        <v>0.39</v>
+      </c>
+      <c r="AD19">
+        <v>0.53</v>
+      </c>
+      <c r="AE19">
+        <v>0.46</v>
+      </c>
+      <c r="AG19">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="AI19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AK19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="N21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>0.53</v>
+      </c>
+      <c r="R21">
+        <v>0.47</v>
+      </c>
+      <c r="S21">
+        <v>0.6</v>
+      </c>
+      <c r="U21">
+        <v>0.52</v>
+      </c>
+      <c r="V21">
+        <v>0.45</v>
+      </c>
+      <c r="W21">
+        <v>0.6</v>
+      </c>
+      <c r="Y21">
+        <v>0.59</v>
+      </c>
+      <c r="Z21">
+        <v>0.48</v>
+      </c>
+      <c r="AA21">
+        <v>0.52</v>
+      </c>
+      <c r="AC21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD21">
+        <v>0.47</v>
+      </c>
+      <c r="AE21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AG21">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="AI21">
+        <v>1.3</v>
+      </c>
+      <c r="AK21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D24" s="6">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="N24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D26" s="6">
+        <v>4</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="N26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D28" s="6">
+        <v>4</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="N28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D30" s="6">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="N30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
         <v>30</v>
-      </c>
-      <c r="W6">
-        <v>0.63</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA6">
-        <v>0.83</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE6">
-        <v>0.72</v>
-      </c>
-      <c r="AG6">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="AI6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8">
-        <v>0.77</v>
-      </c>
-      <c r="R8">
-        <v>0.77</v>
-      </c>
-      <c r="S8">
-        <v>0.75</v>
-      </c>
-      <c r="U8">
-        <v>0.76</v>
-      </c>
-      <c r="V8">
-        <v>0.76</v>
-      </c>
-      <c r="W8">
-        <v>0.79</v>
-      </c>
-      <c r="Y8">
-        <v>0.76</v>
-      </c>
-      <c r="Z8">
-        <v>0.76</v>
-      </c>
-      <c r="AA8">
-        <v>0.66</v>
-      </c>
-      <c r="AC8">
-        <v>0.76</v>
-      </c>
-      <c r="AD8">
-        <v>0.76</v>
-      </c>
-      <c r="AE8">
-        <v>0.72</v>
-      </c>
-      <c r="AG8">
-        <v>0.505</v>
-      </c>
-      <c r="AI8">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="10" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="D10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="N10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10">
-        <v>0.77</v>
-      </c>
-      <c r="R10">
-        <v>0.6</v>
-      </c>
-      <c r="S10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="U10">
-        <v>0.8</v>
-      </c>
-      <c r="V10">
-        <v>0.62</v>
-      </c>
-      <c r="W10">
-        <v>0.54</v>
-      </c>
-      <c r="Y10">
-        <v>0.69</v>
-      </c>
-      <c r="Z10">
-        <v>0.45</v>
-      </c>
-      <c r="AA10">
-        <v>0.48</v>
-      </c>
-      <c r="AC10">
-        <v>0.74</v>
-      </c>
-      <c r="AD10">
-        <v>0.52</v>
-      </c>
-      <c r="AE10">
-        <v>0.51</v>
-      </c>
-      <c r="AG10">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="AI10">
-        <v>3.11</v>
-      </c>
-    </row>
-    <row r="12" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="14" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="16" spans="4:35" x14ac:dyDescent="0.25">
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="5">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s">
-        <v>35</v>
-      </c>
-      <c r="J40" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Risultati_VQC.xlsx
+++ b/Risultati_VQC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\Quantum Computing\Progetto_Quantum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E81A2-BD2F-40E1-AF39-45083ACFA4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7398C6-74F6-4EA2-82F7-45B85369E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DB13CE7-46A4-45BA-99F6-EEADDB5FEF6F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5DB13CE7-46A4-45BA-99F6-EEADDB5FEF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>Feature</t>
   </si>
@@ -128,17 +128,41 @@
     <t>Ripetizioni</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>ZZFeatureMap</t>
+  </si>
+  <si>
+    <t>Sampler</t>
+  </si>
+  <si>
+    <t>StateVectorSampler</t>
+  </si>
+  <si>
+    <t>EfficientSU2</t>
+  </si>
+  <si>
+    <t>FakeVigoV2</t>
+  </si>
+  <si>
+    <t>cambio ottimizzatore</t>
+  </si>
+  <si>
+    <t>SIMULAZIONI CON RUMORE</t>
+  </si>
+  <si>
+    <t>Media_accuracy</t>
+  </si>
+  <si>
+    <t>Media Precision</t>
+  </si>
+  <si>
+    <t>Media_F1_Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +170,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,12 +206,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -187,6 +213,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,18 +277,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -573,752 +641,1436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA8DD4F-6A97-4C60-92BA-950D3C8AFF47}">
-  <dimension ref="D2:AK35"/>
+  <dimension ref="D2:AR48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="39" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="23" width="11.85546875" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" customWidth="1"/>
-    <col min="30" max="30" width="10" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" customWidth="1"/>
+    <col min="13" max="13" width="19.19921875" customWidth="1"/>
+    <col min="15" max="15" width="19.3984375" customWidth="1"/>
+    <col min="18" max="18" width="14.1328125" customWidth="1"/>
+    <col min="19" max="19" width="14.46484375" customWidth="1"/>
+    <col min="20" max="22" width="13.86328125" customWidth="1"/>
+    <col min="24" max="24" width="12.1328125" customWidth="1"/>
+    <col min="25" max="25" width="11.86328125" customWidth="1"/>
+    <col min="26" max="28" width="13.59765625" customWidth="1"/>
+    <col min="32" max="32" width="10.796875" customWidth="1"/>
+    <col min="34" max="34" width="10.265625" customWidth="1"/>
+    <col min="35" max="35" width="10" customWidth="1"/>
+    <col min="36" max="38" width="14.3984375" customWidth="1"/>
+    <col min="39" max="39" width="13.19921875" customWidth="1"/>
+    <col min="40" max="40" width="14.86328125" customWidth="1"/>
+    <col min="42" max="42" width="6.59765625" customWidth="1"/>
+    <col min="44" max="44" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="K2" s="4" t="s">
+    <row r="2" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="K2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="R3" s="5" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="S3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="5" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="6" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="N5" s="1" t="s">
+      <c r="K6" s="1"/>
+      <c r="M6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U6" s="11"/>
+      <c r="V6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AE6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AF6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AH6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AI6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AJ6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AP6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AR6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="3">
+    <row r="7" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="N7" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q7">
+      <c r="R8">
         <v>0.77</v>
       </c>
-      <c r="R7">
+      <c r="S8">
         <v>0.77</v>
       </c>
-      <c r="S7">
+      <c r="T8">
         <v>0.75</v>
       </c>
-      <c r="U7">
+      <c r="V8">
+        <f>ROUND(AVERAGE(R8:T8),2)</f>
         <v>0.76</v>
       </c>
-      <c r="V7">
+      <c r="X8">
         <v>0.76</v>
       </c>
-      <c r="W7">
+      <c r="Y8">
+        <v>0.76</v>
+      </c>
+      <c r="Z8">
         <v>0.79</v>
       </c>
-      <c r="Y7">
+      <c r="AB8">
+        <f>ROUND(AVERAGE(X8:Z8),2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="AD8">
         <v>0.76</v>
       </c>
-      <c r="Z7">
+      <c r="AE8">
         <v>0.76</v>
       </c>
-      <c r="AA7">
+      <c r="AF8">
         <v>0.66</v>
       </c>
-      <c r="AC7">
+      <c r="AH8">
         <v>0.76</v>
       </c>
-      <c r="AD7">
+      <c r="AI8">
         <v>0.76</v>
       </c>
-      <c r="AE7">
+      <c r="AJ8">
         <v>0.72</v>
       </c>
-      <c r="AG7">
+      <c r="AL8">
+        <f>ROUND(AVERAGE(AH8:AJ8),2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AN8">
         <v>0.505</v>
       </c>
-      <c r="AI7">
+      <c r="AP8">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="3">
+      <c r="AR8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="N9" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q9">
+      <c r="R10">
         <v>0.77</v>
       </c>
-      <c r="R9">
+      <c r="S10">
         <v>0.6</v>
       </c>
-      <c r="S9">
+      <c r="T10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U9">
+      <c r="V10">
+        <f t="shared" ref="V10:V35" si="0">ROUND(AVERAGE(R10:T10),2)</f>
+        <v>0.64</v>
+      </c>
+      <c r="X10">
         <v>0.8</v>
       </c>
-      <c r="V9">
+      <c r="Y10">
         <v>0.62</v>
       </c>
-      <c r="W9">
+      <c r="Z10">
         <v>0.54</v>
       </c>
-      <c r="Y9">
+      <c r="AB10">
+        <f t="shared" ref="AB10:AB35" si="1">ROUND(AVERAGE(X10:Z10),2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="AD10">
         <v>0.69</v>
       </c>
-      <c r="Z9">
+      <c r="AE10">
         <v>0.45</v>
       </c>
-      <c r="AA9">
+      <c r="AF10">
         <v>0.48</v>
       </c>
-      <c r="AC9">
+      <c r="AH10">
         <v>0.74</v>
       </c>
-      <c r="AD9">
+      <c r="AI10">
         <v>0.52</v>
       </c>
-      <c r="AE9">
+      <c r="AJ10">
         <v>0.51</v>
       </c>
-      <c r="AG9">
+      <c r="AL10">
+        <f t="shared" ref="AL9:AL35" si="2">ROUND(AVERAGE(AH10:AJ10),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="AN10">
         <v>0.51200000000000001</v>
       </c>
-      <c r="AI9">
+      <c r="AP10">
         <v>3.11</v>
       </c>
-    </row>
-    <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="3">
+      <c r="AR10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="N11" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="R12">
         <v>0.73</v>
       </c>
-      <c r="R11">
+      <c r="S12">
         <v>0.66</v>
       </c>
-      <c r="S11">
+      <c r="T12">
         <v>0.74</v>
       </c>
-      <c r="U11">
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="X12">
         <v>0.81</v>
       </c>
-      <c r="V11">
+      <c r="Y12">
         <v>0.75</v>
       </c>
-      <c r="W11">
+      <c r="Z12">
         <v>0.82</v>
       </c>
-      <c r="Y11">
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+      <c r="AD12">
         <v>0.59</v>
       </c>
-      <c r="Z11">
+      <c r="AE12">
         <v>0.41</v>
       </c>
-      <c r="AA11">
+      <c r="AF12">
         <v>0.62</v>
       </c>
-      <c r="AC11">
+      <c r="AH12">
         <v>0.68</v>
       </c>
-      <c r="AD11">
+      <c r="AI12">
         <v>0.53</v>
       </c>
-      <c r="AE11">
+      <c r="AJ12">
         <v>0.71</v>
       </c>
-      <c r="AG11">
+      <c r="AL12">
+        <f t="shared" si="2"/>
+        <v>0.64</v>
+      </c>
+      <c r="AN12">
         <v>0.56899999999999995</v>
       </c>
-      <c r="AI11">
+      <c r="AP12">
         <v>1.41</v>
       </c>
-      <c r="AK11">
+      <c r="AR12">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="3">
+    <row r="13" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="N13" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q13">
+      <c r="R14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R13">
+      <c r="S14">
         <v>0.63</v>
       </c>
-      <c r="S13">
+      <c r="T14">
         <v>0.6</v>
       </c>
-      <c r="U13">
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="X14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="V13">
+      <c r="Y14">
         <v>0.63</v>
       </c>
-      <c r="W13">
+      <c r="Z14">
         <v>0.59</v>
       </c>
-      <c r="Y13">
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="AD14">
         <v>0.52</v>
       </c>
-      <c r="Z13">
+      <c r="AE14">
         <v>0.59</v>
       </c>
-      <c r="AA13">
+      <c r="AF14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AC13">
+      <c r="AH14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AD13">
+      <c r="AI14">
         <v>0.61</v>
       </c>
-      <c r="AE13">
+      <c r="AJ14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AG13">
+      <c r="AL14">
+        <f t="shared" si="2"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AN14">
         <v>0.67100000000000004</v>
       </c>
-      <c r="AI13">
+      <c r="AP14">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AK13">
+      <c r="AR14">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="3">
+    <row r="15" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="N15" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q15">
+      <c r="R16">
         <v>0.6</v>
       </c>
-      <c r="R15">
+      <c r="S16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S15">
+      <c r="T16">
         <v>0.48</v>
       </c>
-      <c r="U15">
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X16">
         <v>0.61</v>
       </c>
-      <c r="V15">
+      <c r="Y16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="W15">
+      <c r="Z16">
         <v>0.46</v>
       </c>
-      <c r="Y15">
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="AD16">
         <v>0.48</v>
       </c>
-      <c r="Z15">
+      <c r="AE16">
         <v>0.59</v>
       </c>
-      <c r="AA15">
+      <c r="AF16">
         <v>0.38</v>
       </c>
-      <c r="AC15">
+      <c r="AH16">
         <v>0.54</v>
       </c>
-      <c r="AD15">
+      <c r="AI16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AE15">
+      <c r="AJ16">
         <v>0.42</v>
       </c>
-      <c r="AG15">
+      <c r="AL16">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="AN16">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AI15">
+      <c r="AP16">
         <v>3.3</v>
       </c>
-      <c r="AK15">
+      <c r="AR16">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="3">
+    <row r="17" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="N17" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q17">
+      <c r="R18">
         <v>0.42</v>
       </c>
-      <c r="R17">
+      <c r="S18">
         <v>0.65</v>
       </c>
-      <c r="S17">
+      <c r="T18">
         <v>0.63</v>
       </c>
-      <c r="U17">
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X18">
         <v>0.39</v>
       </c>
-      <c r="V17">
+      <c r="Y18">
         <v>0.67</v>
       </c>
-      <c r="W17">
+      <c r="Z18">
         <v>0.63</v>
       </c>
-      <c r="Y17">
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD18">
         <v>0.38</v>
       </c>
-      <c r="Z17">
+      <c r="AE18">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA17">
+      <c r="AF18">
         <v>0.59</v>
       </c>
-      <c r="AC17">
+      <c r="AH18">
         <v>0.39</v>
       </c>
-      <c r="AD17">
+      <c r="AI18">
         <v>0.6</v>
       </c>
-      <c r="AE17">
+      <c r="AJ18">
         <v>0.61</v>
       </c>
-      <c r="AG17">
+      <c r="AL18">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+      <c r="AN18">
         <v>0.625</v>
       </c>
-      <c r="AI17">
+      <c r="AP18">
         <v>3.15</v>
       </c>
-      <c r="AK17">
+      <c r="AR18">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="3">
+    <row r="19" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D20" s="2">
         <v>3</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="N19" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q19">
+      <c r="R20">
         <v>0.53</v>
       </c>
-      <c r="R19">
+      <c r="S20">
         <v>0.53</v>
       </c>
-      <c r="S19">
+      <c r="T20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="U19">
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="X20">
         <v>0.53</v>
       </c>
-      <c r="V19">
+      <c r="Y20">
         <v>0.52</v>
       </c>
-      <c r="W19">
+      <c r="Z20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Y19">
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="AD20">
         <v>0.31</v>
       </c>
-      <c r="Z19">
+      <c r="AE20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA19">
+      <c r="AF20">
         <v>0.38</v>
       </c>
-      <c r="AC19">
+      <c r="AH20">
         <v>0.39</v>
       </c>
-      <c r="AD19">
+      <c r="AI20">
         <v>0.53</v>
       </c>
-      <c r="AE19">
+      <c r="AJ20">
         <v>0.46</v>
       </c>
-      <c r="AG19">
+      <c r="AL20">
+        <f t="shared" si="2"/>
+        <v>0.46</v>
+      </c>
+      <c r="AN20">
         <v>0.67600000000000005</v>
       </c>
-      <c r="AI19">
+      <c r="AP20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AK19">
+      <c r="AR20">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="3">
+    <row r="21" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D22" s="2">
         <v>3</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="N21" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q21">
+      <c r="R22">
         <v>0.53</v>
       </c>
-      <c r="R21">
+      <c r="S22">
         <v>0.47</v>
       </c>
-      <c r="S21">
+      <c r="T22">
         <v>0.6</v>
       </c>
-      <c r="U21">
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="X22">
         <v>0.52</v>
       </c>
-      <c r="V21">
+      <c r="Y22">
         <v>0.45</v>
       </c>
-      <c r="W21">
+      <c r="Z22">
         <v>0.6</v>
       </c>
-      <c r="Y21">
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="AD22">
         <v>0.59</v>
       </c>
-      <c r="Z21">
+      <c r="AE22">
         <v>0.48</v>
       </c>
-      <c r="AA21">
+      <c r="AF22">
         <v>0.52</v>
       </c>
-      <c r="AC21">
+      <c r="AH22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AD21">
+      <c r="AI22">
         <v>0.47</v>
       </c>
-      <c r="AE21">
+      <c r="AJ22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AG21">
+      <c r="AL22">
+        <f t="shared" si="2"/>
+        <v>0.53</v>
+      </c>
+      <c r="AN22">
         <v>0.64300000000000002</v>
       </c>
-      <c r="AI21">
+      <c r="AP22">
         <v>1.3</v>
       </c>
-      <c r="AK21">
+      <c r="AR22">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D24" s="6">
+    <row r="23" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="N24" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D26" s="6">
+      <c r="R26">
+        <v>0.77</v>
+      </c>
+      <c r="S26">
+        <v>0.85</v>
+      </c>
+      <c r="T26">
+        <v>0.72</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="X26">
+        <v>0.71</v>
+      </c>
+      <c r="Y26">
+        <v>0.81</v>
+      </c>
+      <c r="Z26">
+        <v>0.73</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="AD26">
+        <v>0.86</v>
+      </c>
+      <c r="AE26">
+        <v>0.9</v>
+      </c>
+      <c r="AF26">
+        <v>0.66</v>
+      </c>
+      <c r="AH26">
+        <v>0.78</v>
+      </c>
+      <c r="AI26">
+        <v>0.85</v>
+      </c>
+      <c r="AJ26">
+        <v>0.69</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+      <c r="AN26">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AP26">
+        <v>5.38</v>
+      </c>
+      <c r="AR26">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="N26" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D28" s="6">
+      <c r="R28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S28">
+        <v>0.78</v>
+      </c>
+      <c r="T28">
+        <v>0.6</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="X28">
+        <v>0.59</v>
+      </c>
+      <c r="Y28">
+        <v>0.75</v>
+      </c>
+      <c r="Z28">
+        <v>0.69</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="AD28">
+        <v>0.34</v>
+      </c>
+      <c r="AE28">
+        <v>0.83</v>
+      </c>
+      <c r="AF28">
+        <v>0.31</v>
+      </c>
+      <c r="AH28">
+        <v>0.43</v>
+      </c>
+      <c r="AI28">
+        <v>0.79</v>
+      </c>
+      <c r="AJ28">
+        <v>0.43</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AN28">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AP28">
+        <v>2.15</v>
+      </c>
+      <c r="AR28">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="N28" t="s">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D30" s="6">
+      <c r="R30">
+        <v>0.72</v>
+      </c>
+      <c r="S30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T30">
+        <v>0.83</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+      <c r="X30">
+        <v>0.73</v>
+      </c>
+      <c r="Y30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z30">
+        <v>0.81</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="AD30">
+        <v>0.66</v>
+      </c>
+      <c r="AE30">
+        <v>0.52</v>
+      </c>
+      <c r="AF30">
+        <v>0.86</v>
+      </c>
+      <c r="AH30">
+        <v>0.69</v>
+      </c>
+      <c r="AI30">
+        <v>0.54</v>
+      </c>
+      <c r="AJ30">
+        <v>0.83</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="2"/>
+        <v>0.69</v>
+      </c>
+      <c r="AN30">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AP30">
+        <v>5.47</v>
+      </c>
+      <c r="AR30">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="N30" t="s">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33">
+      <c r="R32">
+        <v>0.68</v>
+      </c>
+      <c r="S32">
+        <v>0.77</v>
+      </c>
+      <c r="T32">
+        <v>0.53</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="X32">
+        <v>0.71</v>
+      </c>
+      <c r="Y32">
+        <v>0.76</v>
+      </c>
+      <c r="Z32">
+        <v>0.52</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="AD32">
+        <v>0.59</v>
+      </c>
+      <c r="AE32">
+        <v>0.76</v>
+      </c>
+      <c r="AF32">
+        <v>0.41</v>
+      </c>
+      <c r="AH32">
+        <v>0.64</v>
+      </c>
+      <c r="AI32">
+        <v>0.76</v>
+      </c>
+      <c r="AJ32">
+        <v>0.46</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="2"/>
+        <v>0.62</v>
+      </c>
+      <c r="AN32">
+        <v>0.6</v>
+      </c>
+      <c r="AP32">
+        <v>2.16</v>
+      </c>
+      <c r="AR32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D35" s="4">
         <v>5</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J33" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N33" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35">
+      <c r="R35">
+        <v>0.82</v>
+      </c>
+      <c r="S35">
+        <v>0.65</v>
+      </c>
+      <c r="T35">
+        <v>0.73</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+      <c r="X35">
+        <v>0.76</v>
+      </c>
+      <c r="Y35">
+        <v>0.7</v>
+      </c>
+      <c r="Z35">
+        <v>0.7</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="AD35">
+        <v>0.9</v>
+      </c>
+      <c r="AE35">
+        <v>0.48</v>
+      </c>
+      <c r="AF35">
+        <v>0.79</v>
+      </c>
+      <c r="AH35">
+        <v>0.83</v>
+      </c>
+      <c r="AI35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AJ35">
+        <v>0.74</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+      <c r="AN35">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="AP35">
+        <v>6.29</v>
+      </c>
+      <c r="AR35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D37" s="4">
         <v>5</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J35" t="s">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N35" t="s">
-        <v>30</v>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="H41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="44" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44">
+        <v>0.77</v>
+      </c>
+      <c r="X44">
+        <v>0.8</v>
+      </c>
+      <c r="AD44">
+        <v>0.69</v>
+      </c>
+      <c r="AH44">
+        <v>0.74</v>
+      </c>
+      <c r="AN44">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AP44">
+        <v>6.19</v>
+      </c>
+      <c r="AR44">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46">
+        <v>0.82</v>
+      </c>
+      <c r="X46">
+        <v>0.75</v>
+      </c>
+      <c r="AD46">
+        <v>0.93</v>
+      </c>
+      <c r="AH46">
+        <v>0.83</v>
+      </c>
+      <c r="AN46">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AP46">
+        <v>8.44</v>
+      </c>
+      <c r="AR46">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="D48" s="2">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>0.88</v>
+      </c>
+      <c r="X48">
+        <v>0.74</v>
+      </c>
+      <c r="AD48">
+        <v>0.79</v>
+      </c>
+      <c r="AH48">
+        <v>0.77</v>
+      </c>
+      <c r="AN48">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="AP48">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="AR48">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="R3:V3"/>
+  <mergeCells count="3">
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="H41:L41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Risultati_VQC.xlsx
+++ b/Risultati_VQC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocco\Desktop\DataSpell_Projects\ProgettoQuantumComputingVQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7398C6-74F6-4EA2-82F7-45B85369E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781028F-697C-47FE-A0D6-A291D9A3DA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5DB13CE7-46A4-45BA-99F6-EEADDB5FEF6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
   <si>
     <t>Feature</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Media_F1_Score</t>
+  </si>
+  <si>
+    <t>Media Recall</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA8DD4F-6A97-4C60-92BA-950D3C8AFF47}">
-  <dimension ref="D2:AR48"/>
+  <dimension ref="D2:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="39" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView tabSelected="1" topLeftCell="AB2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -658,17 +661,18 @@
     <col min="24" max="24" width="12.1328125" customWidth="1"/>
     <col min="25" max="25" width="11.86328125" customWidth="1"/>
     <col min="26" max="28" width="13.59765625" customWidth="1"/>
-    <col min="32" max="32" width="10.796875" customWidth="1"/>
-    <col min="34" max="34" width="10.265625" customWidth="1"/>
-    <col min="35" max="35" width="10" customWidth="1"/>
-    <col min="36" max="38" width="14.3984375" customWidth="1"/>
-    <col min="39" max="39" width="13.19921875" customWidth="1"/>
-    <col min="40" max="40" width="14.86328125" customWidth="1"/>
-    <col min="42" max="42" width="6.59765625" customWidth="1"/>
-    <col min="44" max="44" width="11.19921875" customWidth="1"/>
+    <col min="32" max="33" width="10.796875" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" customWidth="1"/>
+    <col min="36" max="36" width="10.265625" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="38" max="40" width="14.3984375" customWidth="1"/>
+    <col min="41" max="41" width="13.19921875" customWidth="1"/>
+    <col min="42" max="42" width="14.86328125" customWidth="1"/>
+    <col min="44" max="44" width="6.59765625" customWidth="1"/>
+    <col min="46" max="46" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="2" spans="4:46" x14ac:dyDescent="0.45">
       <c r="K2" s="13" t="s">
         <v>6</v>
       </c>
@@ -677,7 +681,7 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:46" x14ac:dyDescent="0.45">
       <c r="S3" s="14" t="s">
         <v>7</v>
       </c>
@@ -688,7 +692,7 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
     </row>
-    <row r="6" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
@@ -744,33 +748,38 @@
       <c r="AF6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AK6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AL6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="12" t="s">
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AN6" s="6" t="s">
+      <c r="AP6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AP6" s="6" t="s">
+      <c r="AR6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AR6" s="6" t="s">
+      <c r="AT6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="4:44" x14ac:dyDescent="0.45">
+      <c r="AD7" s="16"/>
+    </row>
+    <row r="8" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D8" s="2">
         <v>3</v>
       </c>
@@ -830,32 +839,36 @@
         <v>0.66</v>
       </c>
       <c r="AH8">
+        <f>ROUND(AVERAGE(AD8:AF8),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="AJ8">
         <v>0.76</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>0.76</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>0.72</v>
       </c>
-      <c r="AL8">
-        <f>ROUND(AVERAGE(AH8:AJ8),2)</f>
+      <c r="AN8">
+        <f>ROUND(AVERAGE(AJ8:AL8),2)</f>
         <v>0.75</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>0.505</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>3.22</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D10" s="2">
         <v>3</v>
       </c>
@@ -915,32 +928,36 @@
         <v>0.48</v>
       </c>
       <c r="AH10">
+        <f t="shared" ref="AH9:AH35" si="2">ROUND(AVERAGE(AD10:AF10),2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="AJ10">
         <v>0.74</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>0.52</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <v>0.51</v>
       </c>
-      <c r="AL10">
-        <f t="shared" ref="AL9:AL35" si="2">ROUND(AVERAGE(AH10:AJ10),2)</f>
+      <c r="AN10">
+        <f t="shared" ref="AN10:AN35" si="3">ROUND(AVERAGE(AJ10:AL10),2)</f>
         <v>0.59</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>0.51200000000000001</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>3.11</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D12" s="2">
         <v>3</v>
       </c>
@@ -1000,32 +1017,36 @@
         <v>0.62</v>
       </c>
       <c r="AH12">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+      <c r="AJ12">
         <v>0.68</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <v>0.53</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>0.71</v>
       </c>
-      <c r="AL12">
-        <f t="shared" si="2"/>
+      <c r="AN12">
+        <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>0.56899999999999995</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>1.41</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="13" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D14" s="2">
         <v>3</v>
       </c>
@@ -1085,32 +1106,36 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AH14">
+        <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK14">
         <v>0.61</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AL14">
-        <f t="shared" si="2"/>
+      <c r="AN14">
+        <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>0.67100000000000004</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D16" s="2">
         <v>3</v>
       </c>
@@ -1170,32 +1195,36 @@
         <v>0.38</v>
       </c>
       <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="AJ16">
         <v>0.54</v>
       </c>
-      <c r="AI16">
+      <c r="AK16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>0.42</v>
       </c>
-      <c r="AL16">
-        <f t="shared" si="2"/>
+      <c r="AN16">
+        <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
-      <c r="AN16">
+      <c r="AP16">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AP16">
+      <c r="AR16">
         <v>3.3</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D18" s="2">
         <v>3</v>
       </c>
@@ -1255,32 +1284,36 @@
         <v>0.59</v>
       </c>
       <c r="AH18">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+      <c r="AJ18">
         <v>0.39</v>
       </c>
-      <c r="AI18">
+      <c r="AK18">
         <v>0.6</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <v>0.61</v>
       </c>
-      <c r="AL18">
-        <f t="shared" si="2"/>
+      <c r="AN18">
+        <f t="shared" si="3"/>
         <v>0.53</v>
       </c>
-      <c r="AN18">
+      <c r="AP18">
         <v>0.625</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>3.15</v>
       </c>
-      <c r="AR18">
+      <c r="AT18">
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D20" s="2">
         <v>3</v>
       </c>
@@ -1340,32 +1373,36 @@
         <v>0.38</v>
       </c>
       <c r="AH20">
+        <f>ROUND(AVERAGE(AD20:AF20),2)</f>
+        <v>0.41</v>
+      </c>
+      <c r="AJ20">
         <v>0.39</v>
       </c>
-      <c r="AI20">
+      <c r="AK20">
         <v>0.53</v>
       </c>
-      <c r="AJ20">
+      <c r="AL20">
         <v>0.46</v>
       </c>
-      <c r="AL20">
-        <f t="shared" si="2"/>
+      <c r="AN20">
+        <f t="shared" si="3"/>
         <v>0.46</v>
       </c>
-      <c r="AN20">
+      <c r="AP20">
         <v>0.67600000000000005</v>
       </c>
-      <c r="AP20">
+      <c r="AR20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AR20">
+      <c r="AT20">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D22" s="2">
         <v>3</v>
       </c>
@@ -1425,29 +1462,33 @@
         <v>0.52</v>
       </c>
       <c r="AH22">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AI22">
-        <v>0.47</v>
-      </c>
-      <c r="AJ22">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AL22">
         <f t="shared" si="2"/>
         <v>0.53</v>
       </c>
+      <c r="AJ22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK22">
+        <v>0.47</v>
+      </c>
+      <c r="AL22">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="AN22">
+        <f t="shared" si="3"/>
+        <v>0.53</v>
+      </c>
+      <c r="AP22">
         <v>0.64300000000000002</v>
       </c>
-      <c r="AP22">
+      <c r="AR22">
         <v>1.3</v>
       </c>
-      <c r="AR22">
+      <c r="AT22">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1460,13 +1501,13 @@
       <c r="M23" s="9"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D26" s="3">
         <v>4</v>
       </c>
@@ -1526,32 +1567,36 @@
         <v>0.66</v>
       </c>
       <c r="AH26">
+        <f t="shared" si="2"/>
+        <v>0.81</v>
+      </c>
+      <c r="AJ26">
         <v>0.78</v>
       </c>
-      <c r="AI26">
+      <c r="AK26">
         <v>0.85</v>
       </c>
-      <c r="AJ26">
+      <c r="AL26">
         <v>0.69</v>
       </c>
-      <c r="AL26">
-        <f t="shared" si="2"/>
+      <c r="AN26">
+        <f t="shared" si="3"/>
         <v>0.77</v>
       </c>
-      <c r="AN26">
+      <c r="AP26">
         <v>0.50800000000000001</v>
       </c>
-      <c r="AP26">
+      <c r="AR26">
         <v>5.38</v>
       </c>
-      <c r="AR26">
+      <c r="AT26">
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D28" s="3">
         <v>4</v>
       </c>
@@ -1611,32 +1656,36 @@
         <v>0.31</v>
       </c>
       <c r="AH28">
-        <v>0.43</v>
-      </c>
-      <c r="AI28">
-        <v>0.79</v>
+        <f t="shared" si="2"/>
+        <v>0.49</v>
       </c>
       <c r="AJ28">
         <v>0.43</v>
       </c>
+      <c r="AK28">
+        <v>0.79</v>
+      </c>
       <c r="AL28">
-        <f t="shared" si="2"/>
+        <v>0.43</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AN28">
+      <c r="AP28">
         <v>0.57899999999999996</v>
       </c>
-      <c r="AP28">
+      <c r="AR28">
         <v>2.15</v>
       </c>
-      <c r="AR28">
+      <c r="AT28">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D30" s="3">
         <v>4</v>
       </c>
@@ -1696,32 +1745,36 @@
         <v>0.86</v>
       </c>
       <c r="AH30">
+        <f t="shared" si="2"/>
+        <v>0.68</v>
+      </c>
+      <c r="AJ30">
         <v>0.69</v>
       </c>
-      <c r="AI30">
+      <c r="AK30">
         <v>0.54</v>
       </c>
-      <c r="AJ30">
+      <c r="AL30">
         <v>0.83</v>
       </c>
-      <c r="AL30">
-        <f t="shared" si="2"/>
+      <c r="AN30">
+        <f t="shared" si="3"/>
         <v>0.69</v>
       </c>
-      <c r="AN30">
+      <c r="AP30">
         <v>0.57799999999999996</v>
       </c>
-      <c r="AP30">
+      <c r="AR30">
         <v>5.47</v>
       </c>
-      <c r="AR30">
+      <c r="AT30">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D32" s="3">
         <v>4</v>
       </c>
@@ -1781,35 +1834,39 @@
         <v>0.41</v>
       </c>
       <c r="AH32">
+        <f t="shared" si="2"/>
+        <v>0.59</v>
+      </c>
+      <c r="AJ32">
         <v>0.64</v>
       </c>
-      <c r="AI32">
+      <c r="AK32">
         <v>0.76</v>
       </c>
-      <c r="AJ32">
+      <c r="AL32">
         <v>0.46</v>
       </c>
-      <c r="AL32">
-        <f t="shared" si="2"/>
+      <c r="AN32">
+        <f t="shared" si="3"/>
         <v>0.62</v>
       </c>
-      <c r="AN32">
+      <c r="AP32">
         <v>0.6</v>
       </c>
-      <c r="AP32">
+      <c r="AR32">
         <v>2.16</v>
       </c>
-      <c r="AR32">
+      <c r="AT32">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D35" s="4">
         <v>5</v>
       </c>
@@ -1869,32 +1926,36 @@
         <v>0.79</v>
       </c>
       <c r="AH35">
+        <f t="shared" si="2"/>
+        <v>0.72</v>
+      </c>
+      <c r="AJ35">
         <v>0.83</v>
       </c>
-      <c r="AI35">
+      <c r="AK35">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AJ35">
+      <c r="AL35">
         <v>0.74</v>
       </c>
-      <c r="AL35">
-        <f t="shared" si="2"/>
+      <c r="AN35">
+        <f t="shared" si="3"/>
         <v>0.71</v>
       </c>
-      <c r="AN35">
+      <c r="AP35">
         <v>0.48699999999999999</v>
       </c>
-      <c r="AP35">
+      <c r="AR35">
         <v>6.29</v>
       </c>
-      <c r="AR35">
+      <c r="AT35">
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:46" x14ac:dyDescent="0.45">
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D37" s="4">
         <v>5</v>
       </c>
@@ -1919,7 +1980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:46" x14ac:dyDescent="0.45">
       <c r="H41" s="15" t="s">
         <v>36</v>
       </c>
@@ -1928,7 +1989,7 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
     </row>
-    <row r="44" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D44" s="2">
         <v>3</v>
       </c>
@@ -1961,20 +2022,20 @@
       <c r="AD44">
         <v>0.69</v>
       </c>
-      <c r="AH44">
+      <c r="AJ44">
         <v>0.74</v>
       </c>
-      <c r="AN44">
+      <c r="AP44">
         <v>0.53600000000000003</v>
       </c>
-      <c r="AP44">
+      <c r="AR44">
         <v>6.19</v>
       </c>
-      <c r="AR44">
+      <c r="AT44">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D46" s="2">
         <v>4</v>
       </c>
@@ -2007,20 +2068,20 @@
       <c r="AD46">
         <v>0.93</v>
       </c>
-      <c r="AH46">
+      <c r="AJ46">
         <v>0.83</v>
       </c>
-      <c r="AN46">
+      <c r="AP46">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AP46">
+      <c r="AR46">
         <v>8.44</v>
       </c>
-      <c r="AR46">
+      <c r="AT46">
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="4:44" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:46" x14ac:dyDescent="0.45">
       <c r="D48" s="2">
         <v>5</v>
       </c>
@@ -2053,16 +2114,16 @@
       <c r="AD48">
         <v>0.79</v>
       </c>
-      <c r="AH48">
+      <c r="AJ48">
         <v>0.77</v>
       </c>
-      <c r="AN48">
+      <c r="AP48">
         <v>0.56599999999999995</v>
       </c>
-      <c r="AP48">
+      <c r="AR48">
         <v>16.260000000000002</v>
       </c>
-      <c r="AR48">
+      <c r="AT48">
         <v>388</v>
       </c>
     </row>

--- a/Risultati_VQC.xlsx
+++ b/Risultati_VQC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rocco\Desktop\DataSpell_Projects\ProgettoQuantumComputingVQC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\Quantum Computing\Progetto_Quantum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781028F-697C-47FE-A0D6-A291D9A3DA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE20F31E-7B27-4285-9311-A58684120470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5DB13CE7-46A4-45BA-99F6-EEADDB5FEF6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DB13CE7-46A4-45BA-99F6-EEADDB5FEF6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>FakeVigoV2</t>
   </si>
   <si>
-    <t>cambio ottimizzatore</t>
-  </si>
-  <si>
     <t>SIMULAZIONI CON RUMORE</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Media Recall</t>
+  </si>
+  <si>
+    <t>cobyqa</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -309,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -646,33 +645,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA8DD4F-6A97-4C60-92BA-950D3C8AFF47}">
   <dimension ref="D2:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView tabSelected="1" topLeftCell="T4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.73046875" customWidth="1"/>
-    <col min="13" max="13" width="19.19921875" customWidth="1"/>
-    <col min="15" max="15" width="19.3984375" customWidth="1"/>
-    <col min="18" max="18" width="14.1328125" customWidth="1"/>
-    <col min="19" max="19" width="14.46484375" customWidth="1"/>
-    <col min="20" max="22" width="13.86328125" customWidth="1"/>
-    <col min="24" max="24" width="12.1328125" customWidth="1"/>
-    <col min="25" max="25" width="11.86328125" customWidth="1"/>
-    <col min="26" max="28" width="13.59765625" customWidth="1"/>
-    <col min="32" max="33" width="10.796875" customWidth="1"/>
-    <col min="34" max="34" width="11.33203125" customWidth="1"/>
-    <col min="36" max="36" width="10.265625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="20" max="22" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="26" max="28" width="13.5703125" customWidth="1"/>
+    <col min="32" max="33" width="10.85546875" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" customWidth="1"/>
+    <col min="36" max="36" width="10.28515625" customWidth="1"/>
     <col min="37" max="37" width="10" customWidth="1"/>
-    <col min="38" max="40" width="14.3984375" customWidth="1"/>
-    <col min="41" max="41" width="13.19921875" customWidth="1"/>
-    <col min="42" max="42" width="14.86328125" customWidth="1"/>
-    <col min="44" max="44" width="6.59765625" customWidth="1"/>
-    <col min="46" max="46" width="11.19921875" customWidth="1"/>
+    <col min="38" max="40" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" customWidth="1"/>
+    <col min="44" max="44" width="6.5703125" customWidth="1"/>
+    <col min="46" max="46" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="2" spans="4:46" x14ac:dyDescent="0.25">
       <c r="K2" s="13" t="s">
         <v>6</v>
       </c>
@@ -681,7 +680,7 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:46" x14ac:dyDescent="0.25">
       <c r="S3" s="14" t="s">
         <v>7</v>
       </c>
@@ -692,7 +691,7 @@
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
     </row>
-    <row r="6" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
@@ -724,7 +723,7 @@
       </c>
       <c r="U6" s="11"/>
       <c r="V6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>13</v>
@@ -737,7 +736,7 @@
       </c>
       <c r="AA6" s="11"/>
       <c r="AB6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>16</v>
@@ -748,9 +747,9 @@
       <c r="AF6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AG6" s="16"/>
+      <c r="AG6" s="11"/>
       <c r="AH6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ6" s="6" t="s">
         <v>19</v>
@@ -763,7 +762,7 @@
       </c>
       <c r="AM6" s="11"/>
       <c r="AN6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AP6" s="6" t="s">
         <v>23</v>
@@ -775,11 +774,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O7" s="5"/>
-      <c r="AD7" s="16"/>
-    </row>
-    <row r="8" spans="4:46" x14ac:dyDescent="0.45">
+      <c r="AD7" s="11"/>
+    </row>
+    <row r="8" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <v>3</v>
       </c>
@@ -865,10 +864,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>3</v>
       </c>
@@ -915,7 +914,7 @@
         <v>0.54</v>
       </c>
       <c r="AB10">
-        <f t="shared" ref="AB10:AB35" si="1">ROUND(AVERAGE(X10:Z10),2)</f>
+        <f t="shared" ref="AB10:AB37" si="1">ROUND(AVERAGE(X10:Z10),2)</f>
         <v>0.65</v>
       </c>
       <c r="AD10">
@@ -928,7 +927,7 @@
         <v>0.48</v>
       </c>
       <c r="AH10">
-        <f t="shared" ref="AH9:AH35" si="2">ROUND(AVERAGE(AD10:AF10),2)</f>
+        <f t="shared" ref="AH10:AH37" si="2">ROUND(AVERAGE(AD10:AF10),2)</f>
         <v>0.54</v>
       </c>
       <c r="AJ10">
@@ -941,7 +940,7 @@
         <v>0.51</v>
       </c>
       <c r="AN10">
-        <f t="shared" ref="AN10:AN35" si="3">ROUND(AVERAGE(AJ10:AL10),2)</f>
+        <f t="shared" ref="AN10:AN37" si="3">ROUND(AVERAGE(AJ10:AL10),2)</f>
         <v>0.59</v>
       </c>
       <c r="AP10">
@@ -954,10 +953,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <v>3</v>
       </c>
@@ -1043,10 +1042,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="13" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>3</v>
       </c>
@@ -1132,10 +1131,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <v>3</v>
       </c>
@@ -1221,10 +1220,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
         <v>3</v>
       </c>
@@ -1310,10 +1309,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <v>3</v>
       </c>
@@ -1399,10 +1398,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <v>3</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -1501,13 +1500,13 @@
       <c r="M23" s="9"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D26" s="3">
         <v>4</v>
       </c>
@@ -1593,10 +1592,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D28" s="3">
         <v>4</v>
       </c>
@@ -1682,10 +1681,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D30" s="3">
         <v>4</v>
       </c>
@@ -1771,10 +1770,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D32" s="3">
         <v>4</v>
       </c>
@@ -1860,13 +1859,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D35" s="4">
         <v>5</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>0.73</v>
       </c>
       <c r="V35">
-        <f t="shared" si="0"/>
+        <f>ROUND(AVERAGE(R35:T35),2)</f>
         <v>0.73</v>
       </c>
       <c r="X35">
@@ -1952,10 +1951,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:46" x14ac:dyDescent="0.25">
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D37" s="4">
         <v>5</v>
       </c>
@@ -1977,19 +1976,68 @@
         <v>32</v>
       </c>
       <c r="O37" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37">
+        <v>0.78</v>
+      </c>
+      <c r="S37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ref="V36:V37" si="4">ROUND(AVERAGE(R37:T37),2)</f>
+        <v>0.67</v>
+      </c>
+      <c r="X37">
+        <v>0.74</v>
+      </c>
+      <c r="Y37">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="AD37">
+        <v>0.86</v>
+      </c>
+      <c r="AE37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="2"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AJ37">
+        <v>0.79</v>
+      </c>
+      <c r="AK37">
+        <v>0.37</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="3"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AP37">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="AR37">
+        <v>12.52</v>
+      </c>
+      <c r="AT37">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="41" spans="4:46" x14ac:dyDescent="0.25">
+      <c r="H41" s="15" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="4:46" x14ac:dyDescent="0.45">
-      <c r="H41" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
     </row>
-    <row r="44" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D44" s="2">
         <v>3</v>
       </c>
@@ -2035,7 +2083,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D46" s="2">
         <v>4</v>
       </c>
@@ -2081,7 +2129,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="4:46" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:46" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <v>5</v>
       </c>
@@ -2106,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="R48">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="X48">
         <v>0.74</v>
